--- a/ig/main/ValueSet-MeltingPotVS.xlsx
+++ b/ig/main/ValueSet-MeltingPotVS.xlsx
@@ -26,7 +26,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/telesurveillance/ValueSet/MeltingPotVS</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/[code]/ValueSet/MeltingPotVS</t>
   </si>
   <si>
     <t>Version</t>
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-09T15:39:37+00:00</t>
+    <t>2024-01-09T16:02:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -122,7 +122,7 @@
     <t>C01</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/telesurveillance/CodeSystem/competence-code-system</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/[code]/CodeSystem/competence-code-system</t>
   </si>
   <si>
     <t>Codes</t>
@@ -131,7 +131,7 @@
     <t>All codes</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/telesurveillance/CodeSystem/type-carte-code-system</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/[code]/CodeSystem/type-carte-code-system</t>
   </si>
 </sst>
 </file>
